--- a/data/trans_dic/IP12-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP12-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 11,79</t>
+          <t>3,11; 11,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 14,65</t>
+          <t>3,68; 14,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 9,53</t>
+          <t>0,96; 8,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 19,92</t>
+          <t>4,77; 19,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 11,29</t>
+          <t>2,86; 11,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,33; 16,74</t>
+          <t>6,46; 17,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 19,42</t>
+          <t>5,47; 19,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 15,13</t>
+          <t>2,75; 14,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,77; 10,16</t>
+          <t>3,79; 9,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 13,74</t>
+          <t>6,46; 13,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 11,16</t>
+          <t>4,03; 11,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 14,45</t>
+          <t>5,43; 15,64</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,59</t>
+          <t>5,13; 8,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 11,35</t>
+          <t>7,03; 11,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 9,47</t>
+          <t>5,57; 9,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,12</t>
+          <t>5,71; 10,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,42</t>
+          <t>5,34; 9,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,19</t>
+          <t>5,81; 10,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,93</t>
+          <t>5,22; 9,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,12</t>
+          <t>5,39; 9,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 8,32</t>
+          <t>5,62; 8,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,14</t>
+          <t>7,07; 10,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 8,61</t>
+          <t>5,93; 8,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 8,94</t>
+          <t>6,12; 8,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 10,01</t>
+          <t>3,71; 9,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 10,26</t>
+          <t>3,65; 10,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,39</t>
+          <t>2,86; 8,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,51; 11,66</t>
+          <t>4,48; 11,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 7,97</t>
+          <t>2,59; 7,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 13,96</t>
+          <t>6,4; 14,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,69; 13,8</t>
+          <t>6,4; 13,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 12,17</t>
+          <t>4,59; 12,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,64</t>
+          <t>3,95; 7,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 10,71</t>
+          <t>5,93; 10,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 9,87</t>
+          <t>5,36; 9,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,3</t>
+          <t>5,36; 10,57</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,07</t>
+          <t>5,21; 8,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,73; 10,23</t>
+          <t>6,86; 10,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,16</t>
+          <t>5,16; 8,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,96</t>
+          <t>6,21; 9,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,23</t>
+          <t>5,01; 8,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,56</t>
+          <t>6,94; 10,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,45; 9,75</t>
+          <t>6,49; 9,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,21</t>
+          <t>5,79; 9,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 7,56</t>
+          <t>5,45; 7,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,38; 9,98</t>
+          <t>7,42; 9,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 8,31</t>
+          <t>6,17; 8,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,46; 8,83</t>
+          <t>6,38; 8,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP12-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP12-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,91%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,98; 11,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>6,27; 16,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,89; 19,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,49; 14,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,16; 11,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,23; 14,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 9,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>5,69; 20,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>3,88; 10,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>6,42; 13,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,8; 11,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>5,23; 15,04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>7,24%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 11,87</t>
+          <t>5,07; 9,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 14,35</t>
+          <t>5,83; 10,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 8,67</t>
+          <t>5,16; 8,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 19,05</t>
+          <t>5,19; 9,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 11,59</t>
+          <t>5,15; 8,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 17,69</t>
+          <t>7,05; 11,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 19,85</t>
+          <t>5,79; 9,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 14,71</t>
+          <t>5,58; 9,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 9,85</t>
+          <t>5,58; 8,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 13,55</t>
+          <t>7,05; 10,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 11,75</t>
+          <t>5,88; 8,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 15,64</t>
+          <t>5,78; 8,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,59%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 8,81</t>
+          <t>2,81; 8,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 11,45</t>
+          <t>6,5; 14,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,57; 9,6</t>
+          <t>6,37; 13,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 10,05</t>
+          <t>4,8; 12,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,74</t>
+          <t>3,68; 10,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 10,07</t>
+          <t>3,79; 10,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,18</t>
+          <t>3,03; 8,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,46</t>
+          <t>4,26; 11,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,24</t>
+          <t>3,83; 7,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 10,11</t>
+          <t>5,73; 10,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 8,81</t>
+          <t>5,36; 10,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 8,94</t>
+          <t>5,4; 10,64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>8,62%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7,92%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7,12%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>6,51%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,27%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,94%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9,7%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,68%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,46%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 9,98</t>
+          <t>5,04; 8,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 10,6</t>
+          <t>7,04; 10,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,78</t>
+          <t>6,25; 9,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 11,46</t>
+          <t>5,43; 8,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 7,99</t>
+          <t>5,3; 8,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,4; 14,12</t>
+          <t>6,85; 10,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,4; 13,96</t>
+          <t>5,06; 8,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 12,15</t>
+          <t>6,08; 9,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,63</t>
+          <t>5,56; 7,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,91</t>
+          <t>7,44; 9,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 9,86</t>
+          <t>6,07; 8,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 10,57</t>
+          <t>6,25; 8,85</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,56%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,44%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,51%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,83%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6,44%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8,62%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>7,92%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7,29%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>6,5%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>7,19%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>7,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>5,21; 8,14</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>6,86; 10,38</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 8,21</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>6,21; 9,88</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>5,01; 8,14</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>6,94; 10,45</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>6,49; 9,77</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>5,79; 9,14</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>5,45; 7,57</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>7,42; 9,86</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>6,17; 8,32</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>6,38; 8,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
